--- a/AssetMaintenance.UI/Template/Fuel Template.xlsx
+++ b/AssetMaintenance.UI/Template/Fuel Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\2019\CWA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\V2 Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3BF3AD1-90ED-439B-BC6A-E6F5FD06C25E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{038F4E2D-5CF9-4824-B0D0-F809B4F5A40E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5355" xr2:uid="{BD684ED9-70BA-4343-9110-04940CFF99DD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{BD684ED9-70BA-4343-9110-04940CFF99DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +78,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,12 +109,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,62 +450,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43385BC6-133E-41E1-8D93-40422E3CDC25}">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/AssetMaintenance.UI/Template/Fuel Template.xlsx
+++ b/AssetMaintenance.UI/Template/Fuel Template.xlsx
@@ -1,38 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\V2 Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HSIN\Downloads\Microsoft.SkypeApp_kzf8qxf38zg5c!App\All\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{038F4E2D-5CF9-4824-B0D0-F809B4F5A40E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F89B7D-EB0C-4574-8DF5-857B964BCBD7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{BD684ED9-70BA-4343-9110-04940CFF99DD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="8928" xr2:uid="{BD684ED9-70BA-4343-9110-04940CFF99DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Voucher No.</t>
-  </si>
-  <si>
     <t>Registration No.</t>
   </si>
   <si>
@@ -57,13 +60,43 @@
     <t>Amount (Excl. VAT)</t>
   </si>
   <si>
-    <t>Discount (%)</t>
-  </si>
-  <si>
     <t>VAT Amount</t>
   </si>
   <si>
     <t>Amount (Incl. VAT)</t>
+  </si>
+  <si>
+    <t>Ebene</t>
+  </si>
+  <si>
+    <t>Sanjay</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
+  <si>
+    <t>Bagatelle</t>
+  </si>
+  <si>
+    <t>C1000</t>
+  </si>
+  <si>
+    <t>Vacoas</t>
+  </si>
+  <si>
+    <t>Voucher Number</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>Cost Centre/ Location</t>
+  </si>
+  <si>
+    <t>Vadodara</t>
+  </si>
+  <si>
+    <t>Discount Amount</t>
   </si>
 </sst>
 </file>
@@ -128,12 +161,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,70 +486,378 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43385BC6-133E-41E1-8D93-40422E3CDC25}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="16.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>43479</v>
+      </c>
+      <c r="B2" s="4">
+        <v>43497</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1200</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L2" s="3">
+        <f>I2*40</f>
+        <v>1600</v>
+      </c>
+      <c r="M2" s="3">
+        <v>10</v>
+      </c>
+      <c r="N2" s="3">
+        <f>L2*0.15</f>
+        <v>240</v>
+      </c>
+      <c r="O2" s="3">
+        <f>L2+N2</f>
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>43480</v>
+      </c>
+      <c r="B3" s="4">
+        <v>43498</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1400</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1400</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L7" si="0">I3*40</f>
+        <v>1600</v>
+      </c>
+      <c r="M3" s="3">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" ref="N3:N7" si="1">L3*0.15</f>
+        <v>240</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" ref="O3:O7" si="2">L3+N3</f>
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>43481</v>
+      </c>
+      <c r="B4" s="4">
+        <v>43499</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10002</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1500</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="M4" s="3">
+        <v>10</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="2"/>
+        <v>920</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>43482</v>
+      </c>
+      <c r="B5" s="4">
+        <v>43500</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10003</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3">
+        <v>40</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="M5" s="3">
+        <v>10</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="2"/>
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>43483</v>
+      </c>
+      <c r="B6" s="4">
+        <v>43501</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10004</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="M6" s="3">
+        <v>10</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="2"/>
+        <v>920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>43484</v>
+      </c>
+      <c r="B7" s="4">
+        <v>43502</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10005</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3">
+        <v>20</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="M7" s="3">
+        <v>10</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="2"/>
+        <v>920</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>